--- a/data/trans_orig/P33B_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R2-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>110037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91983</v>
+        <v>91718</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133067</v>
+        <v>132039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1595600760571328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1333798843312164</v>
+        <v>0.1329960483906589</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1929544559023534</v>
+        <v>0.1914640298801554</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>307</v>
@@ -762,19 +762,19 @@
         <v>171817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>154976</v>
+        <v>155181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189962</v>
+        <v>192366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2346637053195804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2116635453606554</v>
+        <v>0.2119426085513761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2594456512415808</v>
+        <v>0.2627300464601008</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>432</v>
@@ -783,19 +783,19 @@
         <v>281854</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>257492</v>
+        <v>256577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>311825</v>
+        <v>308960</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1982358242832684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1811013957364804</v>
+        <v>0.1804579770033423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2193151143850432</v>
+        <v>0.2173001357954333</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>579591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>556561</v>
+        <v>557589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>597645</v>
+        <v>597910</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8404399239428672</v>
+        <v>0.8404399239428673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8070455440976466</v>
+        <v>0.8085359701198446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8666201156687836</v>
+        <v>0.8670039516093411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>930</v>
@@ -833,19 +833,19 @@
         <v>560366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>542221</v>
+        <v>539817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>577207</v>
+        <v>577002</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7653362946804195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7405543487584193</v>
+        <v>0.7372699535398994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7883364546393444</v>
+        <v>0.7880573914486241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1534</v>
@@ -854,19 +854,19 @@
         <v>1139957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1109986</v>
+        <v>1112851</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1164319</v>
+        <v>1165234</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8017641757167315</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7806848856149569</v>
+        <v>0.7826998642045666</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8188986042635196</v>
+        <v>0.8195420229966576</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>139233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117783</v>
+        <v>118464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162110</v>
+        <v>163427</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1327396032145177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1122903544088884</v>
+        <v>0.112939791651769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1545502073774258</v>
+        <v>0.1558051922022501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>374</v>
@@ -979,19 +979,19 @@
         <v>237945</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>215488</v>
+        <v>215312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261909</v>
+        <v>261677</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2222046621671259</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2012326256544206</v>
+        <v>0.2010683485750678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2445828120659852</v>
+        <v>0.2443662829999133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>526</v>
@@ -1000,19 +1000,19 @@
         <v>377178</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>345752</v>
+        <v>341140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413636</v>
+        <v>405800</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1779347223244156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1631093381835135</v>
+        <v>0.1609336944320509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1951340499895056</v>
+        <v>0.1914372088480995</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>909684</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>886807</v>
+        <v>885490</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>931134</v>
+        <v>930453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8672603967854824</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8454497926225744</v>
+        <v>0.8441948077977505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8877096455911115</v>
+        <v>0.887060208348231</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1142</v>
@@ -1050,19 +1050,19 @@
         <v>832893</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>808929</v>
+        <v>809161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>855350</v>
+        <v>855526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7777953378328741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7554171879340144</v>
+        <v>0.7556337170000871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7987673743455794</v>
+        <v>0.7989316514249321</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1954</v>
@@ -1071,19 +1071,19 @@
         <v>1742577</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1706119</v>
+        <v>1713955</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1774003</v>
+        <v>1778615</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8220652776755843</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8048659500104944</v>
+        <v>0.8085627911519003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8368906618164867</v>
+        <v>0.839066305567949</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>93123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73988</v>
+        <v>77477</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113266</v>
+        <v>114442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1159579414501859</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09213074195727217</v>
+        <v>0.09647547696485345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1410409154630824</v>
+        <v>0.1425056830467828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -1196,19 +1196,19 @@
         <v>163353</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143752</v>
+        <v>144858</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184493</v>
+        <v>184779</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2011095811571121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1769783263837122</v>
+        <v>0.1783396798488446</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2271353215268259</v>
+        <v>0.2274881473060315</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>318</v>
@@ -1217,19 +1217,19 @@
         <v>256476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>230545</v>
+        <v>227398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285748</v>
+        <v>285365</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1587758715692937</v>
+        <v>0.1587758715692936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1427227079831314</v>
+        <v>0.140775038219804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1768974306566607</v>
+        <v>0.1766605535798931</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>709950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>689807</v>
+        <v>688631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>729085</v>
+        <v>725596</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8840420585498141</v>
+        <v>0.8840420585498142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8589590845369175</v>
+        <v>0.8574943169532172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9078692580427279</v>
+        <v>0.9035245230351465</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>824</v>
@@ -1267,19 +1267,19 @@
         <v>648906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>627766</v>
+        <v>627480</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>668507</v>
+        <v>667401</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7988904188428878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7728646784731741</v>
+        <v>0.7725118526939685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.823021673616288</v>
+        <v>0.8216603201511554</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1405</v>
@@ -1288,19 +1288,19 @@
         <v>1358856</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1329584</v>
+        <v>1329967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1384787</v>
+        <v>1387934</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8412241284307064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8231025693433391</v>
+        <v>0.8233394464201068</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8572772920168686</v>
+        <v>0.8592249617801958</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>150328</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130713</v>
+        <v>131537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173981</v>
+        <v>173172</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1518371916836192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1320254872287442</v>
+        <v>0.1328573099828979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1757275404952701</v>
+        <v>0.1749107491118679</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>405</v>
@@ -1413,19 +1413,19 @@
         <v>267159</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>243072</v>
+        <v>245548</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>292323</v>
+        <v>292378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2388929915273674</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2173546530781669</v>
+        <v>0.219568475653589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2613948680610175</v>
+        <v>0.2614444800555014</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>585</v>
@@ -1434,19 +1434,19 @@
         <v>417487</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>384244</v>
+        <v>388247</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>447582</v>
+        <v>451748</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1980129685553318</v>
+        <v>0.1980129685553317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1822461664485527</v>
+        <v>0.1841445024781208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2122870989523386</v>
+        <v>0.2142628220717502</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>839734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>816081</v>
+        <v>816890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>859349</v>
+        <v>858525</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8481628083163808</v>
+        <v>0.8481628083163809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.82427245950473</v>
+        <v>0.825089250888132</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8679745127712559</v>
+        <v>0.8671426900171022</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1156</v>
@@ -1484,19 +1484,19 @@
         <v>851160</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>825996</v>
+        <v>825941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>875247</v>
+        <v>872771</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7611070084726325</v>
+        <v>0.7611070084726326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7386051319389825</v>
+        <v>0.7385555199444986</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.782645346921833</v>
+        <v>0.7804315243464108</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1982</v>
@@ -1505,19 +1505,19 @@
         <v>1690894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1660799</v>
+        <v>1656633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1724137</v>
+        <v>1720134</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8019870314446682</v>
+        <v>0.8019870314446683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.787712901047661</v>
+        <v>0.7857371779282493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8177538335514473</v>
+        <v>0.815855497521879</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>492721</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>446626</v>
+        <v>450804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>532240</v>
+        <v>536863</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1395145783794931</v>
+        <v>0.1395145783794932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1264628204025781</v>
+        <v>0.1276458299625879</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1507044689306758</v>
+        <v>0.1520134799894528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1309</v>
@@ -1630,19 +1630,19 @@
         <v>840273</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>793467</v>
+        <v>797868</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>886033</v>
+        <v>887079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2250572738734859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2125207898458497</v>
+        <v>0.2136995181431914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2373134403303522</v>
+        <v>0.2375936722889594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1861</v>
@@ -1651,19 +1651,19 @@
         <v>1332994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1273312</v>
+        <v>1270987</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1394926</v>
+        <v>1395980</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1834746361710545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1752599188339788</v>
+        <v>0.1749398094854767</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1919989841505105</v>
+        <v>0.1921440330845332</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3038959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2999440</v>
+        <v>2994817</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3085054</v>
+        <v>3080876</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8604854216205067</v>
+        <v>0.8604854216205068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8492955310693238</v>
+        <v>0.8479865200105471</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8735371795974218</v>
+        <v>0.8723541700374119</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4052</v>
@@ -1701,19 +1701,19 @@
         <v>2893325</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2847565</v>
+        <v>2846519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2940131</v>
+        <v>2935730</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.774942726126514</v>
+        <v>0.7749427261265139</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7626865596696477</v>
+        <v>0.7624063277110408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7874792101541502</v>
+        <v>0.7863004818568086</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6875</v>
@@ -1722,19 +1722,19 @@
         <v>5932285</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5870353</v>
+        <v>5869299</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5991967</v>
+        <v>5994292</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8165253638289455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8080010158494895</v>
+        <v>0.8078559669154678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8247400811660217</v>
+        <v>0.8250601905145234</v>
       </c>
     </row>
     <row r="18">
